--- a/logging_system_dataframe_definition.xlsx
+++ b/logging_system_dataframe_definition.xlsx
@@ -284,16 +284,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -303,18 +313,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -596,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C6:Q44"/>
+  <dimension ref="C6:Q47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,34 +620,34 @@
       </c>
     </row>
     <row r="8" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
     </row>
     <row r="9" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="7">
         <v>2</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="7"/>
       <c r="G9" s="1">
         <v>1</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="7">
         <v>2</v>
       </c>
-      <c r="I9" s="2"/>
+      <c r="I9" s="7"/>
       <c r="J9" s="1">
         <v>1</v>
       </c>
@@ -659,23 +659,23 @@
       </c>
     </row>
     <row r="10" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="2"/>
+      <c r="F10" s="7"/>
       <c r="G10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="11"/>
+      <c r="I10" s="13"/>
       <c r="J10" s="1" t="s">
         <v>5</v>
       </c>
@@ -687,346 +687,346 @@
       </c>
     </row>
     <row r="13" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="17" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="18" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D18" s="7"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
     </row>
     <row r="19" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D19" s="7"/>
-      <c r="E19" s="5" t="s">
+      <c r="D19" s="11"/>
+      <c r="E19" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D20" s="8"/>
-      <c r="E20" s="5" t="s">
+      <c r="D20" s="12"/>
+      <c r="E20" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D22" s="13" t="s">
+    <row r="25" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D25" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E25" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F25" t="s">
         <v>23</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G25" t="s">
         <v>24</v>
       </c>
-      <c r="H22" s="9" t="s">
+      <c r="H25" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-    </row>
-    <row r="23" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D23" s="13"/>
-      <c r="E23" s="9"/>
-      <c r="F23" t="s">
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+    </row>
+    <row r="26" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D26" s="6"/>
+      <c r="E26" s="8"/>
+      <c r="F26" t="s">
         <v>35</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G26" t="s">
         <v>25</v>
       </c>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-    </row>
-    <row r="24" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D24" s="13"/>
-      <c r="E24" s="9"/>
-      <c r="F24" t="s">
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+    </row>
+    <row r="27" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D27" s="6"/>
+      <c r="E27" s="8"/>
+      <c r="F27" t="s">
         <v>30</v>
       </c>
-      <c r="G24" s="12" t="s">
+      <c r="G27" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-    </row>
-    <row r="25" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D25" s="13"/>
-      <c r="E25" s="10"/>
-    </row>
-    <row r="26" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D26" s="13"/>
-      <c r="E26" s="9" t="s">
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+    </row>
+    <row r="28" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D28" s="6"/>
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D29" s="6"/>
+      <c r="E29" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F29" t="s">
         <v>27</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G29" t="s">
         <v>31</v>
       </c>
-      <c r="H26" s="9" t="s">
+      <c r="H29" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-    </row>
-    <row r="27" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D27" s="13"/>
-      <c r="E27" s="9"/>
-      <c r="F27" t="s">
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+    </row>
+    <row r="30" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D30" s="6"/>
+      <c r="E30" s="8"/>
+      <c r="F30" t="s">
         <v>15</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G30" t="s">
         <v>33</v>
       </c>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-    </row>
-    <row r="28" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D28" s="13"/>
-      <c r="E28" s="9"/>
-      <c r="F28" t="s">
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+    </row>
+    <row r="31" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D31" s="6"/>
+      <c r="E31" s="8"/>
+      <c r="F31" t="s">
         <v>19</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G31" t="s">
         <v>34</v>
       </c>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-    </row>
-    <row r="29" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D29" s="13"/>
-      <c r="E29" s="9"/>
-      <c r="F29" t="s">
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+    </row>
+    <row r="32" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D32" s="6"/>
+      <c r="E32" s="8"/>
+      <c r="F32" t="s">
         <v>32</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G32" t="s">
         <v>36</v>
       </c>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-    </row>
-    <row r="34" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D34" s="13" t="s">
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+    </row>
+    <row r="37" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D37" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E37" t="s">
         <v>46</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G37" t="s">
         <v>47</v>
-      </c>
-      <c r="H34" t="s">
-        <v>3</v>
-      </c>
-      <c r="I34" s="13">
-        <v>4</v>
-      </c>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-    </row>
-    <row r="35" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D35" s="13"/>
-      <c r="H35" t="s">
-        <v>9</v>
-      </c>
-      <c r="I35" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-    </row>
-    <row r="36" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D36" s="13"/>
-    </row>
-    <row r="37" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D37" s="13"/>
-      <c r="G37" t="s">
-        <v>49</v>
       </c>
       <c r="H37" t="s">
         <v>3</v>
       </c>
-      <c r="I37" s="2">
+      <c r="I37" s="6">
+        <v>4</v>
+      </c>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+    </row>
+    <row r="38" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D38" s="6"/>
+      <c r="H38" t="s">
+        <v>9</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+    </row>
+    <row r="39" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D39" s="6"/>
+    </row>
+    <row r="40" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D40" s="6"/>
+      <c r="G40" t="s">
+        <v>49</v>
+      </c>
+      <c r="H40" t="s">
+        <v>3</v>
+      </c>
+      <c r="I40" s="7">
         <v>2</v>
       </c>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2">
+      <c r="J40" s="7"/>
+      <c r="K40" s="7">
         <v>2</v>
       </c>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2">
+      <c r="L40" s="7"/>
+      <c r="M40" s="7">
         <v>2</v>
       </c>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2">
+      <c r="N40" s="7"/>
+      <c r="O40" s="7">
         <v>2</v>
       </c>
-      <c r="P37" s="2"/>
-    </row>
-    <row r="38" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D38" s="13"/>
-      <c r="I38" s="2">
+      <c r="P40" s="7"/>
+    </row>
+    <row r="41" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D41" s="6"/>
+      <c r="I41" s="7">
         <v>653</v>
       </c>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2">
+      <c r="J41" s="7"/>
+      <c r="K41" s="7">
         <v>14</v>
       </c>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2">
+      <c r="L41" s="7"/>
+      <c r="M41" s="7">
         <v>954</v>
       </c>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2">
+      <c r="N41" s="7"/>
+      <c r="O41" s="7">
         <v>1354</v>
       </c>
-      <c r="P38" s="2"/>
-    </row>
-    <row r="39" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D39" s="13"/>
-    </row>
-    <row r="40" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D40" s="13"/>
-      <c r="E40" t="s">
+      <c r="P41" s="7"/>
+    </row>
+    <row r="42" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D42" s="6"/>
+    </row>
+    <row r="43" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D43" s="6"/>
+      <c r="E43" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D41" s="13"/>
-      <c r="E41" s="12" t="s">
+    <row r="44" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D44" s="6"/>
+      <c r="E44" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F44" t="s">
         <v>39</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H44" t="s">
         <v>3</v>
       </c>
-      <c r="I41" s="2">
+      <c r="I44" s="7">
         <v>2</v>
       </c>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2">
+      <c r="J44" s="7"/>
+      <c r="K44" s="7">
         <v>32</v>
       </c>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2">
+      <c r="L44" s="7"/>
+      <c r="M44" s="7">
         <v>2</v>
       </c>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2">
+      <c r="N44" s="7"/>
+      <c r="O44" s="7">
         <v>32</v>
       </c>
-      <c r="P41" s="2"/>
-      <c r="Q41" s="13" t="s">
+      <c r="P44" s="7"/>
+      <c r="Q44" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D42" s="13"/>
-      <c r="F42" t="s">
+    <row r="45" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D45" s="6"/>
+      <c r="F45" t="s">
         <v>45</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H45" t="s">
         <v>9</v>
       </c>
-      <c r="I42" s="2" t="s">
+      <c r="I45" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2" t="s">
+      <c r="J45" s="7"/>
+      <c r="K45" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2" t="s">
+      <c r="L45" s="7"/>
+      <c r="M45" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2" t="s">
+      <c r="N45" s="7"/>
+      <c r="O45" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="13"/>
-    </row>
-    <row r="44" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D44" t="s">
+      <c r="P45" s="7"/>
+      <c r="Q45" s="6"/>
+    </row>
+    <row r="47" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
         <v>11</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E47" t="s">
         <v>50</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="D34:D42"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="O38:P38"/>
-    <mergeCell ref="O41:P41"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="H22:J24"/>
-    <mergeCell ref="H26:J29"/>
-    <mergeCell ref="I34:L34"/>
-    <mergeCell ref="I35:L35"/>
-    <mergeCell ref="D22:D29"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="E26:E29"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="I38:J38"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="D8:J8"/>
     <mergeCell ref="D17:D20"/>
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="H9:I9"/>
+    <mergeCell ref="D25:D32"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="E29:E32"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="Q44:Q45"/>
+    <mergeCell ref="H25:J27"/>
+    <mergeCell ref="H29:J32"/>
+    <mergeCell ref="I37:L37"/>
+    <mergeCell ref="I38:L38"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="D37:D45"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="M41:N41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
